--- a/artfynd/Kälkåsen artfynd.xlsx
+++ b/artfynd/Kälkåsen artfynd.xlsx
@@ -3011,32 +3011,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>55683400</v>
+        <v>55683422</v>
       </c>
       <c r="B22" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>687282</v>
+        <v>687975</v>
       </c>
       <c r="R22" t="n">
-        <v>7093130</v>
+        <v>7092147</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3133,32 +3133,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55683422</v>
+        <v>55683400</v>
       </c>
       <c r="B23" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>687975</v>
+        <v>687282</v>
       </c>
       <c r="R23" t="n">
-        <v>7092147</v>
+        <v>7093130</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>

--- a/artfynd/Kälkåsen artfynd.xlsx
+++ b/artfynd/Kälkåsen artfynd.xlsx
@@ -2557,51 +2557,48 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>96972132</v>
+        <v>55683424</v>
       </c>
       <c r="B18" t="n">
-        <v>92547</v>
+        <v>82792</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Björnberget, Kälkåsen, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>687804</v>
+        <v>687911</v>
       </c>
       <c r="R18" t="n">
-        <v>7092268</v>
+        <v>7092277</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2625,12 +2622,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2639,74 +2646,81 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Jon Andersson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96972139</v>
+        <v>55683408</v>
       </c>
       <c r="B19" t="n">
-        <v>92535</v>
+        <v>80083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björnberget, Kälkåsen, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>687681</v>
+        <v>687605</v>
       </c>
       <c r="R19" t="n">
-        <v>7092453</v>
+        <v>7092430</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2730,12 +2744,22 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2744,71 +2768,84 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Jon Andersson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>55683424</v>
+        <v>96972132</v>
       </c>
       <c r="B20" t="n">
-        <v>82792</v>
+        <v>92547</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Björnberget, Kälkåsen, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>687911</v>
+        <v>687804</v>
       </c>
       <c r="R20" t="n">
-        <v>7092277</v>
+        <v>7092268</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2832,22 +2869,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>16:30</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2856,81 +2883,74 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>55683408</v>
+        <v>96972139</v>
       </c>
       <c r="B21" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Björnberget, Kälkåsen, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>687605</v>
+        <v>687681</v>
       </c>
       <c r="R21" t="n">
-        <v>7092430</v>
+        <v>7092453</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2954,22 +2974,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>16:30</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2978,36 +2988,26 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3604,10 +3604,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>96972045</v>
+        <v>96972144</v>
       </c>
       <c r="B27" t="n">
-        <v>82792</v>
+        <v>79598</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3615,21 +3615,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3638,14 +3638,14 @@
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Björnberget, Kälkåsen, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>687589</v>
+        <v>687477</v>
       </c>
       <c r="R27" t="n">
-        <v>7092550</v>
+        <v>7091889</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>96972144</v>
+        <v>96972045</v>
       </c>
       <c r="B28" t="n">
-        <v>79598</v>
+        <v>82792</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3720,21 +3720,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3743,14 +3743,14 @@
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Björnberget, Kälkåsen, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>687477</v>
+        <v>687589</v>
       </c>
       <c r="R28" t="n">
-        <v>7091889</v>
+        <v>7092550</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>

--- a/artfynd/Kälkåsen artfynd.xlsx
+++ b/artfynd/Kälkåsen artfynd.xlsx
@@ -908,10 +908,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55683404</v>
+        <v>96972062</v>
       </c>
       <c r="B4" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -919,37 +919,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>björnberget, björntjärnen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>687401</v>
+        <v>687617</v>
       </c>
       <c r="R4" t="n">
-        <v>7092819</v>
+        <v>7092492</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -973,22 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>16:30</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -997,78 +990,73 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55683401</v>
+        <v>55683414</v>
       </c>
       <c r="B5" t="n">
-        <v>80112</v>
+        <v>57657</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6462</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>687282</v>
+        <v>687385</v>
       </c>
       <c r="R5" t="n">
-        <v>7093130</v>
+        <v>7092263</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1121,21 +1109,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1152,10 +1125,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55683414</v>
+        <v>55683404</v>
       </c>
       <c r="B6" t="n">
-        <v>57657</v>
+        <v>91263</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1163,39 +1136,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>687385</v>
+        <v>687401</v>
       </c>
       <c r="R6" t="n">
-        <v>7092263</v>
+        <v>7092819</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1248,6 +1216,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1264,51 +1247,48 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96972062</v>
+        <v>55683401</v>
       </c>
       <c r="B7" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>björnberget, björntjärnen, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>687617</v>
+        <v>687282</v>
       </c>
       <c r="R7" t="n">
-        <v>7092492</v>
+        <v>7093130</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1332,12 +1312,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1346,26 +1336,36 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Jon Andersson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1596,32 +1596,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>55683417</v>
+        <v>55683423</v>
       </c>
       <c r="B10" t="n">
-        <v>91406</v>
+        <v>80112</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1503</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>687482</v>
+        <v>687941</v>
       </c>
       <c r="R10" t="n">
-        <v>7091795</v>
+        <v>7092248</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1690,17 +1690,17 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1718,32 +1718,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55683423</v>
+        <v>55683417</v>
       </c>
       <c r="B11" t="n">
-        <v>80112</v>
+        <v>91406</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>1503</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>687941</v>
+        <v>687482</v>
       </c>
       <c r="R11" t="n">
-        <v>7092248</v>
+        <v>7091795</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1812,17 +1812,17 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -2557,48 +2557,51 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>55683424</v>
+        <v>96972132</v>
       </c>
       <c r="B18" t="n">
-        <v>82792</v>
+        <v>92547</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Björnberget, Kälkåsen, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>687911</v>
+        <v>687804</v>
       </c>
       <c r="R18" t="n">
-        <v>7092277</v>
+        <v>7092268</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2622,22 +2625,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>16:30</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2646,81 +2639,74 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>55683408</v>
+        <v>96972139</v>
       </c>
       <c r="B19" t="n">
-        <v>80083</v>
+        <v>92535</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Björnberget, Kälkåsen, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>687605</v>
+        <v>687681</v>
       </c>
       <c r="R19" t="n">
-        <v>7092430</v>
+        <v>7092453</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2744,22 +2730,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>16:30</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2768,84 +2744,71 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>asp</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Populus tremula</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>96972132</v>
+        <v>55683424</v>
       </c>
       <c r="B20" t="n">
-        <v>92547</v>
+        <v>82792</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>1312</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Björnberget, Kälkåsen, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>687804</v>
+        <v>687911</v>
       </c>
       <c r="R20" t="n">
-        <v>7092268</v>
+        <v>7092277</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2869,12 +2832,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2883,74 +2856,81 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Jon Andersson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96972139</v>
+        <v>55683408</v>
       </c>
       <c r="B21" t="n">
-        <v>92535</v>
+        <v>80083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>6458</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Björnberget, Kälkåsen, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>687681</v>
+        <v>687605</v>
       </c>
       <c r="R21" t="n">
-        <v>7092453</v>
+        <v>7092430</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2974,12 +2954,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2988,55 +2978,65 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>asp</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Populus tremula</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Jon Andersson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>55683422</v>
+        <v>55683400</v>
       </c>
       <c r="B22" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3046,10 +3046,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>687975</v>
+        <v>687282</v>
       </c>
       <c r="R22" t="n">
-        <v>7092147</v>
+        <v>7093130</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3133,32 +3133,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55683400</v>
+        <v>55683422</v>
       </c>
       <c r="B23" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>687282</v>
+        <v>687975</v>
       </c>
       <c r="R23" t="n">
-        <v>7093130</v>
+        <v>7092147</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3255,10 +3255,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>96972123</v>
+        <v>55683418</v>
       </c>
       <c r="B24" t="n">
-        <v>82792</v>
+        <v>78647</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3266,40 +3266,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>353</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Björnberget, Kälkåsen, Ång</t>
+          <t>Björnberget, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>687911</v>
+        <v>687523</v>
       </c>
       <c r="R24" t="n">
-        <v>7092300</v>
+        <v>7091759</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3323,12 +3320,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>09:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2015-06-05</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>16:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3337,33 +3344,43 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Jon Andersson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Jon Andersson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>55683418</v>
+        <v>96972123</v>
       </c>
       <c r="B25" t="n">
-        <v>78647</v>
+        <v>82792</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3371,37 +3388,40 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Björnberget, Ång</t>
+          <t>Björnberget, Kälkåsen, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>687523</v>
+        <v>687911</v>
       </c>
       <c r="R25" t="n">
-        <v>7091759</v>
+        <v>7092300</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3425,22 +3445,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>09:00</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2015-06-05</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>16:30</t>
+          <t>2021-10-21</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3449,36 +3459,26 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Jon Andersson</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4268,7 +4268,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>55683411</v>
+        <v>55683413</v>
       </c>
       <c r="B33" t="n">
         <v>80083</v>
@@ -4303,10 +4303,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>687543</v>
+        <v>687539</v>
       </c>
       <c r="R33" t="n">
-        <v>7092448</v>
+        <v>7092440</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4362,17 +4362,17 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>asp</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Populus tremula</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>55683413</v>
+        <v>55683411</v>
       </c>
       <c r="B34" t="n">
         <v>80083</v>
@@ -4425,10 +4425,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>687539</v>
+        <v>687543</v>
       </c>
       <c r="R34" t="n">
-        <v>7092440</v>
+        <v>7092448</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4484,17 +4484,17 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>asp</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Populus tremula</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
